--- a/Compliance/Results/Combined Answers.xlsx
+++ b/Compliance/Results/Combined Answers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UC Irvine\01 - Academics\3_Spring 24\EECS232 Data Privacy\Project\data_privacy_readability_ws\Compliance\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3987DD7F-AD3D-4F39-8F70-7A40E9DF1B7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{942DB626-0EDC-43E8-8BAF-2342D4EF5768}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10350" yWindow="4905" windowWidth="25650" windowHeight="14700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
   <si>
     <t>Question</t>
   </si>
@@ -246,6 +246,18 @@
   </si>
   <si>
     <t>Compliance percentage</t>
+  </si>
+  <si>
+    <t>Meta</t>
+  </si>
+  <si>
+    <t>Snapchat</t>
+  </si>
+  <si>
+    <t>WhatsApp</t>
+  </si>
+  <si>
+    <t>Tiktok</t>
   </si>
 </sst>
 </file>
@@ -590,8 +602,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="H61" sqref="H61"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="G67" sqref="G67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1674,6 +1686,20 @@
         <v>0</v>
       </c>
     </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B63" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>69</v>
